--- a/bank/data/bbva.xlsx
+++ b/bank/data/bbva.xlsx
@@ -7,7 +7,6 @@
   </bookViews>
   <sheets>
     <sheet name="Informe BBVA" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -86,11 +85,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.000000"/>
       <color theme="1"/>
@@ -109,11 +107,8 @@
     <font>
       <sz val="8.000000"/>
     </font>
-    <font>
-      <sz val="10.000000"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,20 +121,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049989318521683403"/>
-        <bgColor theme="0" tint="-0.049989318521683403"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -162,20 +145,11 @@
       </bottom>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="40" xfId="0" applyNumberFormat="1"/>
@@ -191,18 +165,6 @@
     </xf>
     <xf fontId="3" fillId="2" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="2" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="3" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +727,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A156" zoomScale="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="100" workbookViewId="0">
       <selection activeCell="D3" activeCellId="0" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
@@ -1549,1066 +1511,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView topLeftCell="A521" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="15.28125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="8">
-        <v>45352.5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10">
-        <v>45353</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="10">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="10">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="11"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="11"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="11"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="8">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="10">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="11"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="11"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="11"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="8">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="9"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="9"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="9"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="9"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="10">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="11"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="11"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="11"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="11"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="8">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="9"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="9"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="9"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="9"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="10">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="11"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="11"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="11"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="11"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="9"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="9"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="9"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="10">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="11"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="11"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="11"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="11"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="8">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="9"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="9"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="9"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="9"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="10">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="11"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="11"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="11"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="11"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="8">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="9"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="9"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="9"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="9"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="9"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="10">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="11"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="11"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="11"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="11"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="8">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="9"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="9"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="9"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="9"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="9"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="10">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="11"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="11"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="11"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="11"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="11"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="8">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="9"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="9"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="9"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="9"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="10">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="11"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="11"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="11"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="11"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="11"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="8">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="9"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="9"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="9"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="9"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="9"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="10">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="11"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="11"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="11"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="11"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="8">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="9"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="9"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="9"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="9"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="9"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="10">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="11"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="11"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="11"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="11"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="11"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="8">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="9"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="9"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="9"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="9"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="9"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="10">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="11"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="11"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="11"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="8">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="9"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="9"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="9"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="9"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="9"/>
-    </row>
-    <row r="187"/>
-    <row r="188"/>
-    <row r="189"/>
-    <row r="190"/>
-    <row r="191"/>
-    <row r="192"/>
-    <row r="193"/>
-    <row r="194"/>
-    <row r="195"/>
-    <row r="196"/>
-    <row r="197"/>
-    <row r="198"/>
-    <row r="199"/>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202"/>
-    <row r="203"/>
-    <row r="204"/>
-    <row r="205"/>
-    <row r="206"/>
-    <row r="207"/>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212"/>
-    <row r="213"/>
-    <row r="214"/>
-    <row r="215"/>
-    <row r="216"/>
-    <row r="217"/>
-    <row r="218"/>
-    <row r="219"/>
-    <row r="220"/>
-    <row r="221"/>
-    <row r="222"/>
-    <row r="223"/>
-    <row r="224"/>
-    <row r="225"/>
-    <row r="226"/>
-    <row r="227"/>
-    <row r="228"/>
-    <row r="229"/>
-    <row r="230"/>
-    <row r="231"/>
-    <row r="232"/>
-    <row r="233"/>
-    <row r="234"/>
-    <row r="235"/>
-    <row r="236"/>
-    <row r="237"/>
-    <row r="238"/>
-    <row r="239"/>
-    <row r="240"/>
-    <row r="241"/>
-    <row r="242"/>
-    <row r="243"/>
-    <row r="244"/>
-    <row r="245"/>
-    <row r="246"/>
-    <row r="247"/>
-    <row r="248"/>
-    <row r="249"/>
-    <row r="250"/>
-    <row r="251"/>
-    <row r="252"/>
-    <row r="253"/>
-    <row r="254"/>
-    <row r="255"/>
-    <row r="256"/>
-    <row r="257"/>
-    <row r="258"/>
-    <row r="259"/>
-    <row r="260"/>
-    <row r="261"/>
-    <row r="262"/>
-    <row r="263"/>
-    <row r="264"/>
-    <row r="265"/>
-    <row r="266"/>
-    <row r="267"/>
-    <row r="268"/>
-    <row r="269"/>
-    <row r="270"/>
-    <row r="271"/>
-    <row r="272"/>
-    <row r="273"/>
-    <row r="274"/>
-    <row r="275"/>
-    <row r="276"/>
-    <row r="277"/>
-    <row r="278"/>
-    <row r="279"/>
-    <row r="280"/>
-    <row r="281"/>
-    <row r="282"/>
-    <row r="283"/>
-    <row r="284"/>
-    <row r="285"/>
-    <row r="286"/>
-    <row r="287"/>
-    <row r="288"/>
-    <row r="289"/>
-    <row r="290"/>
-    <row r="291"/>
-    <row r="292"/>
-    <row r="293"/>
-    <row r="294"/>
-    <row r="295"/>
-    <row r="296"/>
-    <row r="297"/>
-    <row r="298"/>
-    <row r="299"/>
-    <row r="300"/>
-    <row r="301"/>
-    <row r="302"/>
-    <row r="303"/>
-    <row r="304"/>
-    <row r="305"/>
-    <row r="306"/>
-    <row r="307"/>
-    <row r="308"/>
-    <row r="309"/>
-    <row r="310"/>
-    <row r="311"/>
-    <row r="312"/>
-    <row r="313"/>
-    <row r="314"/>
-    <row r="315"/>
-    <row r="316"/>
-    <row r="317"/>
-    <row r="318"/>
-    <row r="319"/>
-    <row r="320"/>
-    <row r="321"/>
-    <row r="322"/>
-    <row r="323"/>
-    <row r="324"/>
-    <row r="325"/>
-    <row r="326"/>
-    <row r="327"/>
-    <row r="328"/>
-    <row r="329"/>
-    <row r="330"/>
-    <row r="331"/>
-    <row r="332"/>
-    <row r="333"/>
-    <row r="334"/>
-    <row r="335"/>
-    <row r="336"/>
-    <row r="337"/>
-    <row r="338"/>
-    <row r="339"/>
-    <row r="340"/>
-    <row r="341"/>
-    <row r="342"/>
-    <row r="343"/>
-    <row r="344"/>
-    <row r="345"/>
-    <row r="346"/>
-    <row r="347"/>
-    <row r="348"/>
-    <row r="349"/>
-    <row r="350"/>
-    <row r="351"/>
-    <row r="352"/>
-    <row r="353"/>
-    <row r="354"/>
-    <row r="355"/>
-    <row r="356"/>
-    <row r="357"/>
-    <row r="358"/>
-    <row r="359"/>
-    <row r="360"/>
-    <row r="361"/>
-    <row r="362"/>
-    <row r="363"/>
-    <row r="364"/>
-    <row r="365"/>
-    <row r="366"/>
-    <row r="367"/>
-    <row r="368"/>
-    <row r="369"/>
-    <row r="370"/>
-    <row r="371"/>
-    <row r="372"/>
-    <row r="373"/>
-    <row r="374"/>
-    <row r="375"/>
-    <row r="376"/>
-    <row r="377"/>
-    <row r="378"/>
-    <row r="379"/>
-    <row r="380"/>
-    <row r="381"/>
-    <row r="382"/>
-    <row r="383"/>
-    <row r="384"/>
-    <row r="385"/>
-    <row r="386"/>
-    <row r="387"/>
-    <row r="388"/>
-    <row r="389"/>
-    <row r="390"/>
-    <row r="391"/>
-    <row r="392"/>
-    <row r="393"/>
-    <row r="394"/>
-    <row r="395"/>
-    <row r="396"/>
-    <row r="397"/>
-    <row r="398"/>
-    <row r="399"/>
-    <row r="400"/>
-    <row r="401"/>
-    <row r="402"/>
-    <row r="403"/>
-    <row r="404"/>
-    <row r="405"/>
-    <row r="406"/>
-    <row r="407"/>
-    <row r="408"/>
-    <row r="409"/>
-    <row r="410"/>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
-    <row r="511"/>
-    <row r="512"/>
-    <row r="513"/>
-    <row r="514"/>
-    <row r="515"/>
-    <row r="516"/>
-    <row r="517"/>
-    <row r="518"/>
-    <row r="519"/>
-    <row r="520"/>
-    <row r="521"/>
-    <row r="522"/>
-    <row r="523"/>
-    <row r="524"/>
-    <row r="525"/>
-    <row r="526"/>
-    <row r="527"/>
-    <row r="528"/>
-    <row r="529"/>
-    <row r="530"/>
-    <row r="531"/>
-    <row r="532"/>
-    <row r="533"/>
-    <row r="534"/>
-    <row r="535"/>
-    <row r="536"/>
-    <row r="537"/>
-    <row r="538"/>
-    <row r="539"/>
-    <row r="540"/>
-    <row r="541"/>
-    <row r="542"/>
-    <row r="543"/>
-    <row r="544"/>
-    <row r="545"/>
-    <row r="546"/>
-    <row r="547"/>
-    <row r="548"/>
-    <row r="549"/>
-    <row r="550"/>
-    <row r="551"/>
-    <row r="552"/>
-    <row r="553"/>
-    <row r="554"/>
-    <row r="555"/>
-    <row r="556"/>
-    <row r="557"/>
-    <row r="558"/>
-    <row r="559"/>
-    <row r="560"/>
-    <row r="561"/>
-    <row r="562"/>
-    <row r="563"/>
-    <row r="564"/>
-    <row r="565"/>
-    <row r="566"/>
-    <row r="567"/>
-    <row r="568"/>
-    <row r="569"/>
-    <row r="570"/>
-    <row r="571"/>
-    <row r="572"/>
-    <row r="573"/>
-    <row r="574"/>
-    <row r="575"/>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A49:A54"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="A121:A126"/>
-    <mergeCell ref="A127:A132"/>
-    <mergeCell ref="A133:A138"/>
-    <mergeCell ref="A139:A144"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="A169:A174"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A181:A186"/>
-  </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
 </file>